--- a/database/industries/dode/shesadaf/product/monthly.xlsx
+++ b/database/industries/dode/shesadaf/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shesadaf\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4113634-2047-4293-B3C6-59766F2121A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F12F52-72D6-4CB8-B2C0-41A39B5E2D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="73">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
-  </si>
-  <si>
     <t>ماه 8 منتهی به 1397/08</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>دوده صنعتی</t>
@@ -1405,140 +1405,140 @@
       <c r="I11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>57</v>
+      <c r="J11" s="11">
+        <v>2890745</v>
+      </c>
+      <c r="K11" s="11">
+        <v>3518135</v>
       </c>
       <c r="L11" s="11">
-        <v>2890745</v>
+        <v>3302100</v>
       </c>
       <c r="M11" s="11">
-        <v>3518135</v>
+        <v>3008795</v>
       </c>
       <c r="N11" s="11">
-        <v>3302100</v>
+        <v>2891945</v>
       </c>
       <c r="O11" s="11">
-        <v>3008795</v>
+        <v>2784002</v>
       </c>
       <c r="P11" s="11">
-        <v>2891945</v>
+        <v>2641275</v>
       </c>
       <c r="Q11" s="11">
-        <v>2784002</v>
+        <v>1788880</v>
       </c>
       <c r="R11" s="11">
-        <v>2641275</v>
+        <v>3358650</v>
       </c>
       <c r="S11" s="11">
-        <v>1788880</v>
+        <v>3530506</v>
       </c>
       <c r="T11" s="11">
-        <v>3358650</v>
+        <v>3633193</v>
       </c>
       <c r="U11" s="11">
-        <v>3530506</v>
+        <v>3387265</v>
       </c>
       <c r="V11" s="11">
-        <v>3633193</v>
+        <v>3371</v>
       </c>
       <c r="W11" s="11">
-        <v>3387265</v>
+        <v>2954</v>
       </c>
       <c r="X11" s="11">
-        <v>3371</v>
+        <v>3643</v>
       </c>
       <c r="Y11" s="11">
-        <v>2954</v>
+        <v>3402</v>
       </c>
       <c r="Z11" s="11">
-        <v>3643</v>
+        <v>3539</v>
       </c>
       <c r="AA11" s="11">
-        <v>3402</v>
+        <v>3397</v>
       </c>
       <c r="AB11" s="11">
-        <v>3539</v>
+        <v>3428</v>
       </c>
       <c r="AC11" s="11">
-        <v>3397</v>
+        <v>3722</v>
       </c>
       <c r="AD11" s="11">
-        <v>3428</v>
+        <v>3617</v>
       </c>
       <c r="AE11" s="11">
-        <v>3722</v>
+        <v>3586</v>
       </c>
       <c r="AF11" s="11">
-        <v>3617</v>
+        <v>3763</v>
       </c>
       <c r="AG11" s="11">
-        <v>3586</v>
+        <v>2991</v>
       </c>
       <c r="AH11" s="11">
-        <v>3763</v>
+        <v>3776</v>
       </c>
       <c r="AI11" s="11">
-        <v>2991</v>
+        <v>3304</v>
       </c>
       <c r="AJ11" s="11">
-        <v>3776</v>
+        <v>3346</v>
       </c>
       <c r="AK11" s="11">
-        <v>3304</v>
+        <v>2906</v>
       </c>
       <c r="AL11" s="11">
-        <v>3346</v>
+        <v>3936</v>
       </c>
       <c r="AM11" s="11">
-        <v>2906</v>
+        <v>4558</v>
       </c>
       <c r="AN11" s="11">
-        <v>3936</v>
+        <v>4593</v>
       </c>
       <c r="AO11" s="11">
-        <v>4558</v>
+        <v>4906</v>
       </c>
       <c r="AP11" s="11">
-        <v>4593</v>
+        <v>4576</v>
       </c>
       <c r="AQ11" s="11">
-        <v>4906</v>
+        <v>4101</v>
       </c>
       <c r="AR11" s="11">
-        <v>4576</v>
+        <v>4530</v>
       </c>
       <c r="AS11" s="11">
-        <v>4101</v>
+        <v>4667</v>
       </c>
       <c r="AT11" s="11">
-        <v>4530</v>
+        <v>4865</v>
       </c>
       <c r="AU11" s="11">
-        <v>4667</v>
+        <v>4946</v>
       </c>
       <c r="AV11" s="11">
-        <v>4865</v>
+        <v>4260</v>
       </c>
       <c r="AW11" s="11">
-        <v>4946</v>
+        <v>4831</v>
       </c>
       <c r="AX11" s="11">
-        <v>4260</v>
+        <v>5288</v>
       </c>
       <c r="AY11" s="11">
-        <v>4831</v>
+        <v>5018</v>
       </c>
       <c r="AZ11" s="11">
-        <v>5288</v>
+        <v>4910</v>
       </c>
       <c r="BA11" s="11">
-        <v>5018</v>
+        <v>4861</v>
       </c>
       <c r="BB11" s="11">
-        <v>4910</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1664,11 +1664,11 @@
       <c r="X13" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y13" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z13" s="15" t="s">
-        <v>57</v>
+      <c r="Y13" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="15">
+        <v>0</v>
       </c>
       <c r="AA13" s="15">
         <v>0</v>
@@ -1777,139 +1777,139 @@
         <v>0</v>
       </c>
       <c r="J14" s="17">
-        <v>0</v>
+        <v>2890745</v>
       </c>
       <c r="K14" s="17">
-        <v>0</v>
+        <v>3518135</v>
       </c>
       <c r="L14" s="17">
-        <v>2890745</v>
+        <v>3302100</v>
       </c>
       <c r="M14" s="17">
-        <v>3518135</v>
+        <v>3008795</v>
       </c>
       <c r="N14" s="17">
-        <v>3302100</v>
+        <v>2891945</v>
       </c>
       <c r="O14" s="17">
-        <v>3008795</v>
+        <v>2784002</v>
       </c>
       <c r="P14" s="17">
-        <v>2891945</v>
+        <v>2641275</v>
       </c>
       <c r="Q14" s="17">
-        <v>2784002</v>
+        <v>1788880</v>
       </c>
       <c r="R14" s="17">
-        <v>2641275</v>
+        <v>3358650</v>
       </c>
       <c r="S14" s="17">
-        <v>1788880</v>
+        <v>3530506</v>
       </c>
       <c r="T14" s="17">
-        <v>3358650</v>
+        <v>3633193</v>
       </c>
       <c r="U14" s="17">
-        <v>3530506</v>
+        <v>3387265</v>
       </c>
       <c r="V14" s="17">
-        <v>3633193</v>
+        <v>3371</v>
       </c>
       <c r="W14" s="17">
-        <v>3387265</v>
+        <v>2954</v>
       </c>
       <c r="X14" s="17">
-        <v>3371</v>
+        <v>3643</v>
       </c>
       <c r="Y14" s="17">
-        <v>2954</v>
+        <v>3402</v>
       </c>
       <c r="Z14" s="17">
-        <v>3643</v>
+        <v>3539</v>
       </c>
       <c r="AA14" s="17">
-        <v>3402</v>
+        <v>3397</v>
       </c>
       <c r="AB14" s="17">
-        <v>3539</v>
+        <v>3428</v>
       </c>
       <c r="AC14" s="17">
-        <v>3397</v>
+        <v>3722</v>
       </c>
       <c r="AD14" s="17">
-        <v>3428</v>
+        <v>3617</v>
       </c>
       <c r="AE14" s="17">
-        <v>3722</v>
+        <v>3586</v>
       </c>
       <c r="AF14" s="17">
-        <v>3617</v>
+        <v>3763</v>
       </c>
       <c r="AG14" s="17">
-        <v>3586</v>
+        <v>2991</v>
       </c>
       <c r="AH14" s="17">
-        <v>3763</v>
+        <v>3776</v>
       </c>
       <c r="AI14" s="17">
-        <v>2991</v>
+        <v>3304</v>
       </c>
       <c r="AJ14" s="17">
-        <v>3776</v>
+        <v>3346</v>
       </c>
       <c r="AK14" s="17">
-        <v>3304</v>
+        <v>2906</v>
       </c>
       <c r="AL14" s="17">
-        <v>3346</v>
+        <v>3936</v>
       </c>
       <c r="AM14" s="17">
-        <v>2906</v>
+        <v>4558</v>
       </c>
       <c r="AN14" s="17">
-        <v>3936</v>
+        <v>4593</v>
       </c>
       <c r="AO14" s="17">
-        <v>4558</v>
+        <v>4906</v>
       </c>
       <c r="AP14" s="17">
-        <v>4593</v>
+        <v>4576</v>
       </c>
       <c r="AQ14" s="17">
-        <v>4906</v>
+        <v>4101</v>
       </c>
       <c r="AR14" s="17">
-        <v>4576</v>
+        <v>4530</v>
       </c>
       <c r="AS14" s="17">
-        <v>4101</v>
+        <v>4667</v>
       </c>
       <c r="AT14" s="17">
-        <v>4530</v>
+        <v>4865</v>
       </c>
       <c r="AU14" s="17">
-        <v>4667</v>
+        <v>4946</v>
       </c>
       <c r="AV14" s="17">
-        <v>4865</v>
+        <v>4260</v>
       </c>
       <c r="AW14" s="17">
-        <v>4946</v>
+        <v>4831</v>
       </c>
       <c r="AX14" s="17">
-        <v>4260</v>
+        <v>5288</v>
       </c>
       <c r="AY14" s="17">
-        <v>4831</v>
+        <v>5018</v>
       </c>
       <c r="AZ14" s="17">
-        <v>5288</v>
+        <v>4910</v>
       </c>
       <c r="BA14" s="17">
-        <v>5018</v>
+        <v>4861</v>
       </c>
       <c r="BB14" s="17">
-        <v>4910</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2369,140 +2369,140 @@
       <c r="I21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>57</v>
+      <c r="J21" s="11">
+        <v>2614970</v>
+      </c>
+      <c r="K21" s="11">
+        <v>3497475</v>
       </c>
       <c r="L21" s="11">
-        <v>2614970</v>
+        <v>2803416</v>
       </c>
       <c r="M21" s="11">
-        <v>3497475</v>
+        <v>3192791</v>
       </c>
       <c r="N21" s="11">
-        <v>2803416</v>
+        <v>3220943</v>
       </c>
       <c r="O21" s="11">
-        <v>3192791</v>
+        <v>2153174</v>
       </c>
       <c r="P21" s="11">
-        <v>3220943</v>
+        <v>2048296</v>
       </c>
       <c r="Q21" s="11">
-        <v>2153174</v>
+        <v>2447403</v>
       </c>
       <c r="R21" s="11">
-        <v>2048296</v>
+        <v>3037548</v>
       </c>
       <c r="S21" s="11">
-        <v>2447403</v>
+        <v>3624511</v>
       </c>
       <c r="T21" s="11">
-        <v>3037548</v>
+        <v>3833296</v>
       </c>
       <c r="U21" s="11">
-        <v>3624511</v>
+        <v>3319220</v>
       </c>
       <c r="V21" s="11">
-        <v>3833296</v>
+        <v>2697</v>
       </c>
       <c r="W21" s="11">
-        <v>3319220</v>
+        <v>2912</v>
       </c>
       <c r="X21" s="11">
-        <v>2697</v>
+        <v>3562</v>
       </c>
       <c r="Y21" s="11">
-        <v>2912</v>
+        <v>4065</v>
       </c>
       <c r="Z21" s="11">
-        <v>3562</v>
+        <v>4218</v>
       </c>
       <c r="AA21" s="11">
-        <v>4065</v>
+        <v>4308</v>
       </c>
       <c r="AB21" s="11">
-        <v>4218</v>
+        <v>3242</v>
       </c>
       <c r="AC21" s="11">
-        <v>4308</v>
+        <v>3743</v>
       </c>
       <c r="AD21" s="11">
-        <v>3242</v>
+        <v>3598</v>
       </c>
       <c r="AE21" s="11">
-        <v>3743</v>
+        <v>3792</v>
       </c>
       <c r="AF21" s="11">
-        <v>3598</v>
+        <v>3620</v>
       </c>
       <c r="AG21" s="11">
-        <v>3792</v>
+        <v>3128</v>
       </c>
       <c r="AH21" s="11">
-        <v>3620</v>
+        <v>3812</v>
       </c>
       <c r="AI21" s="11">
-        <v>3128</v>
+        <v>3092</v>
       </c>
       <c r="AJ21" s="11">
-        <v>3812</v>
+        <v>2690</v>
       </c>
       <c r="AK21" s="11">
-        <v>3092</v>
+        <v>3208</v>
       </c>
       <c r="AL21" s="11">
-        <v>2690</v>
+        <v>3308</v>
       </c>
       <c r="AM21" s="11">
-        <v>3208</v>
+        <v>3831</v>
       </c>
       <c r="AN21" s="11">
-        <v>3308</v>
+        <v>3200</v>
       </c>
       <c r="AO21" s="11">
-        <v>3831</v>
+        <v>3930</v>
       </c>
       <c r="AP21" s="11">
-        <v>3200</v>
+        <v>4229</v>
       </c>
       <c r="AQ21" s="11">
-        <v>3930</v>
+        <v>3609</v>
       </c>
       <c r="AR21" s="11">
-        <v>4229</v>
+        <v>4629</v>
       </c>
       <c r="AS21" s="11">
-        <v>3609</v>
+        <v>3596</v>
       </c>
       <c r="AT21" s="11">
-        <v>4629</v>
+        <v>3121</v>
       </c>
       <c r="AU21" s="11">
-        <v>3596</v>
+        <v>7006</v>
       </c>
       <c r="AV21" s="11">
-        <v>3121</v>
+        <v>6258</v>
       </c>
       <c r="AW21" s="11">
-        <v>7006</v>
+        <v>4720</v>
       </c>
       <c r="AX21" s="11">
-        <v>6258</v>
+        <v>4761</v>
       </c>
       <c r="AY21" s="11">
-        <v>4720</v>
+        <v>2420</v>
       </c>
       <c r="AZ21" s="11">
-        <v>4761</v>
+        <v>3392</v>
       </c>
       <c r="BA21" s="11">
-        <v>2657</v>
+        <v>3615</v>
       </c>
       <c r="BB21" s="11">
-        <v>3155</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -2628,11 +2628,11 @@
       <c r="X23" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y23" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z23" s="15" t="s">
-        <v>57</v>
+      <c r="Y23" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="15">
+        <v>0</v>
       </c>
       <c r="AA23" s="15">
         <v>0</v>
@@ -2844,11 +2844,11 @@
       <c r="X25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z25" s="11" t="s">
-        <v>57</v>
+      <c r="Y25" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="11">
+        <v>0</v>
       </c>
       <c r="AA25" s="11">
         <v>0</v>
@@ -2871,11 +2871,11 @@
       <c r="AG25" s="11">
         <v>0</v>
       </c>
-      <c r="AH25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="11">
-        <v>0</v>
+      <c r="AH25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI25" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ25" s="11" t="s">
         <v>57</v>
@@ -3001,11 +3001,11 @@
       <c r="X26" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y26" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z26" s="17" t="s">
-        <v>57</v>
+      <c r="Y26" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="17">
+        <v>0</v>
       </c>
       <c r="AA26" s="17">
         <v>0</v>
@@ -3114,139 +3114,139 @@
         <v>0</v>
       </c>
       <c r="J27" s="15">
-        <v>0</v>
+        <v>2614970</v>
       </c>
       <c r="K27" s="15">
-        <v>0</v>
+        <v>3497475</v>
       </c>
       <c r="L27" s="15">
-        <v>2614970</v>
+        <v>2803416</v>
       </c>
       <c r="M27" s="15">
-        <v>3497475</v>
+        <v>3192791</v>
       </c>
       <c r="N27" s="15">
-        <v>2803416</v>
+        <v>3220943</v>
       </c>
       <c r="O27" s="15">
-        <v>3192791</v>
+        <v>2153174</v>
       </c>
       <c r="P27" s="15">
-        <v>3220943</v>
+        <v>2048296</v>
       </c>
       <c r="Q27" s="15">
-        <v>2153174</v>
+        <v>2447403</v>
       </c>
       <c r="R27" s="15">
-        <v>2048296</v>
+        <v>3037548</v>
       </c>
       <c r="S27" s="15">
-        <v>2447403</v>
+        <v>3624511</v>
       </c>
       <c r="T27" s="15">
-        <v>3037548</v>
+        <v>3833296</v>
       </c>
       <c r="U27" s="15">
-        <v>3624511</v>
+        <v>3319220</v>
       </c>
       <c r="V27" s="15">
-        <v>3833296</v>
+        <v>2697</v>
       </c>
       <c r="W27" s="15">
-        <v>3319220</v>
+        <v>2912</v>
       </c>
       <c r="X27" s="15">
-        <v>2697</v>
+        <v>3562</v>
       </c>
       <c r="Y27" s="15">
-        <v>2912</v>
+        <v>4065</v>
       </c>
       <c r="Z27" s="15">
-        <v>3562</v>
+        <v>4218</v>
       </c>
       <c r="AA27" s="15">
-        <v>4065</v>
+        <v>4308</v>
       </c>
       <c r="AB27" s="15">
-        <v>4218</v>
+        <v>3242</v>
       </c>
       <c r="AC27" s="15">
-        <v>4308</v>
+        <v>3743</v>
       </c>
       <c r="AD27" s="15">
-        <v>3242</v>
+        <v>3598</v>
       </c>
       <c r="AE27" s="15">
-        <v>3743</v>
+        <v>3792</v>
       </c>
       <c r="AF27" s="15">
-        <v>3598</v>
+        <v>3620</v>
       </c>
       <c r="AG27" s="15">
-        <v>3792</v>
+        <v>3128</v>
       </c>
       <c r="AH27" s="15">
-        <v>3620</v>
+        <v>3812</v>
       </c>
       <c r="AI27" s="15">
-        <v>3128</v>
+        <v>3092</v>
       </c>
       <c r="AJ27" s="15">
-        <v>3812</v>
+        <v>2690</v>
       </c>
       <c r="AK27" s="15">
-        <v>3092</v>
+        <v>3208</v>
       </c>
       <c r="AL27" s="15">
-        <v>2690</v>
+        <v>3308</v>
       </c>
       <c r="AM27" s="15">
-        <v>3208</v>
+        <v>3831</v>
       </c>
       <c r="AN27" s="15">
-        <v>3308</v>
+        <v>3200</v>
       </c>
       <c r="AO27" s="15">
-        <v>3831</v>
+        <v>3930</v>
       </c>
       <c r="AP27" s="15">
-        <v>3200</v>
+        <v>4229</v>
       </c>
       <c r="AQ27" s="15">
-        <v>3930</v>
+        <v>3609</v>
       </c>
       <c r="AR27" s="15">
-        <v>4229</v>
+        <v>4629</v>
       </c>
       <c r="AS27" s="15">
-        <v>3609</v>
+        <v>3596</v>
       </c>
       <c r="AT27" s="15">
-        <v>4629</v>
+        <v>3121</v>
       </c>
       <c r="AU27" s="15">
-        <v>3596</v>
+        <v>7006</v>
       </c>
       <c r="AV27" s="15">
-        <v>3121</v>
+        <v>6258</v>
       </c>
       <c r="AW27" s="15">
-        <v>7006</v>
+        <v>4720</v>
       </c>
       <c r="AX27" s="15">
-        <v>6258</v>
+        <v>4761</v>
       </c>
       <c r="AY27" s="15">
-        <v>4720</v>
+        <v>2420</v>
       </c>
       <c r="AZ27" s="15">
-        <v>4761</v>
+        <v>3392</v>
       </c>
       <c r="BA27" s="15">
-        <v>2657</v>
+        <v>3615</v>
       </c>
       <c r="BB27" s="15">
-        <v>3155</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
@@ -3706,140 +3706,140 @@
       <c r="I34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>57</v>
+      <c r="J34" s="11">
+        <v>250752</v>
+      </c>
+      <c r="K34" s="11">
+        <v>323737</v>
       </c>
       <c r="L34" s="11">
-        <v>250752</v>
+        <v>279408</v>
       </c>
       <c r="M34" s="11">
-        <v>323737</v>
+        <v>303647</v>
       </c>
       <c r="N34" s="11">
-        <v>279408</v>
+        <v>307191</v>
       </c>
       <c r="O34" s="11">
-        <v>303647</v>
+        <v>207258</v>
       </c>
       <c r="P34" s="11">
-        <v>307191</v>
+        <v>183894</v>
       </c>
       <c r="Q34" s="11">
-        <v>207258</v>
+        <v>236972</v>
       </c>
       <c r="R34" s="11">
-        <v>183894</v>
+        <v>261042</v>
       </c>
       <c r="S34" s="11">
-        <v>236972</v>
+        <v>312929</v>
       </c>
       <c r="T34" s="11">
-        <v>261042</v>
+        <v>323917</v>
       </c>
       <c r="U34" s="11">
-        <v>312929</v>
+        <v>283893</v>
       </c>
       <c r="V34" s="11">
-        <v>323917</v>
+        <v>260324</v>
       </c>
       <c r="W34" s="11">
-        <v>283893</v>
+        <v>255241</v>
       </c>
       <c r="X34" s="11">
-        <v>260324</v>
+        <v>259299</v>
       </c>
       <c r="Y34" s="11">
-        <v>255241</v>
+        <v>312618</v>
       </c>
       <c r="Z34" s="11">
-        <v>259299</v>
+        <v>369758</v>
       </c>
       <c r="AA34" s="11">
-        <v>312618</v>
+        <v>412246</v>
       </c>
       <c r="AB34" s="11">
-        <v>369758</v>
+        <v>379439</v>
       </c>
       <c r="AC34" s="11">
-        <v>412246</v>
+        <v>483945</v>
       </c>
       <c r="AD34" s="11">
-        <v>379439</v>
+        <v>548330</v>
       </c>
       <c r="AE34" s="11">
-        <v>483945</v>
+        <v>632144</v>
       </c>
       <c r="AF34" s="11">
-        <v>548330</v>
+        <v>650932</v>
       </c>
       <c r="AG34" s="11">
-        <v>632144</v>
+        <v>578760</v>
       </c>
       <c r="AH34" s="11">
-        <v>650932</v>
+        <v>865014</v>
       </c>
       <c r="AI34" s="11">
-        <v>578760</v>
+        <v>696631</v>
       </c>
       <c r="AJ34" s="11">
-        <v>865014</v>
+        <v>615344</v>
       </c>
       <c r="AK34" s="11">
-        <v>696631</v>
+        <v>737292</v>
       </c>
       <c r="AL34" s="11">
-        <v>615344</v>
+        <v>832635</v>
       </c>
       <c r="AM34" s="11">
-        <v>737292</v>
+        <v>888052</v>
       </c>
       <c r="AN34" s="11">
-        <v>832635</v>
+        <v>839455</v>
       </c>
       <c r="AO34" s="11">
-        <v>888052</v>
+        <v>1002354</v>
       </c>
       <c r="AP34" s="11">
-        <v>839455</v>
+        <v>1104064</v>
       </c>
       <c r="AQ34" s="11">
-        <v>1002354</v>
+        <v>898319</v>
       </c>
       <c r="AR34" s="11">
-        <v>1104064</v>
+        <v>1122855</v>
       </c>
       <c r="AS34" s="11">
-        <v>898319</v>
+        <v>935654</v>
       </c>
       <c r="AT34" s="11">
-        <v>1122855</v>
+        <v>924079</v>
       </c>
       <c r="AU34" s="11">
-        <v>935654</v>
+        <v>2392268</v>
       </c>
       <c r="AV34" s="11">
-        <v>924079</v>
+        <v>2354533</v>
       </c>
       <c r="AW34" s="11">
-        <v>2392268</v>
+        <v>1792220</v>
       </c>
       <c r="AX34" s="11">
-        <v>2354533</v>
+        <v>1897316</v>
       </c>
       <c r="AY34" s="11">
-        <v>1792220</v>
+        <v>926763</v>
       </c>
       <c r="AZ34" s="11">
-        <v>1897316</v>
+        <v>1119661</v>
       </c>
       <c r="BA34" s="11">
-        <v>1004229</v>
+        <v>1185735</v>
       </c>
       <c r="BB34" s="11">
-        <v>1042195</v>
+        <v>1430191</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -3967,11 +3967,11 @@
       <c r="X36" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y36" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z36" s="15" t="s">
-        <v>57</v>
+      <c r="Y36" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="15">
+        <v>0</v>
       </c>
       <c r="AA36" s="15">
         <v>0</v>
@@ -4183,11 +4183,11 @@
       <c r="X38" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z38" s="11" t="s">
-        <v>57</v>
+      <c r="Y38" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="11">
+        <v>0</v>
       </c>
       <c r="AA38" s="11">
         <v>0</v>
@@ -4210,20 +4210,20 @@
       <c r="AG38" s="11">
         <v>0</v>
       </c>
-      <c r="AH38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="11">
-        <v>0</v>
+      <c r="AH38" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI38" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ38" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL38" s="11" t="s">
-        <v>57</v>
+      <c r="AK38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="11">
+        <v>0</v>
       </c>
       <c r="AM38" s="11">
         <v>0</v>
@@ -4246,11 +4246,11 @@
       <c r="AS38" s="11">
         <v>0</v>
       </c>
-      <c r="AT38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU38" s="11">
-        <v>0</v>
+      <c r="AT38" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU38" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV38" s="11" t="s">
         <v>57</v>
@@ -4342,11 +4342,11 @@
       <c r="X39" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z39" s="17" t="s">
-        <v>57</v>
+      <c r="Y39" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="17">
+        <v>0</v>
       </c>
       <c r="AA39" s="17">
         <v>0</v>
@@ -4558,11 +4558,11 @@
       <c r="X41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y41" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z41" s="11" t="s">
-        <v>57</v>
+      <c r="Y41" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="11">
+        <v>0</v>
       </c>
       <c r="AA41" s="11">
         <v>0</v>
@@ -4671,139 +4671,139 @@
         <v>0</v>
       </c>
       <c r="J42" s="17">
-        <v>0</v>
+        <v>250752</v>
       </c>
       <c r="K42" s="17">
-        <v>0</v>
+        <v>323737</v>
       </c>
       <c r="L42" s="17">
-        <v>250752</v>
+        <v>279408</v>
       </c>
       <c r="M42" s="17">
-        <v>323737</v>
+        <v>303647</v>
       </c>
       <c r="N42" s="17">
-        <v>279408</v>
+        <v>307191</v>
       </c>
       <c r="O42" s="17">
-        <v>303647</v>
+        <v>207258</v>
       </c>
       <c r="P42" s="17">
-        <v>307191</v>
+        <v>183894</v>
       </c>
       <c r="Q42" s="17">
-        <v>207258</v>
+        <v>236972</v>
       </c>
       <c r="R42" s="17">
-        <v>183894</v>
+        <v>261042</v>
       </c>
       <c r="S42" s="17">
-        <v>236972</v>
+        <v>312929</v>
       </c>
       <c r="T42" s="17">
-        <v>261042</v>
+        <v>323917</v>
       </c>
       <c r="U42" s="17">
-        <v>312929</v>
+        <v>283893</v>
       </c>
       <c r="V42" s="17">
-        <v>323917</v>
+        <v>260324</v>
       </c>
       <c r="W42" s="17">
-        <v>283893</v>
+        <v>255241</v>
       </c>
       <c r="X42" s="17">
-        <v>260324</v>
+        <v>259299</v>
       </c>
       <c r="Y42" s="17">
-        <v>255241</v>
+        <v>312618</v>
       </c>
       <c r="Z42" s="17">
-        <v>259299</v>
+        <v>369758</v>
       </c>
       <c r="AA42" s="17">
-        <v>312618</v>
+        <v>412246</v>
       </c>
       <c r="AB42" s="17">
-        <v>369758</v>
+        <v>379439</v>
       </c>
       <c r="AC42" s="17">
-        <v>412246</v>
+        <v>483945</v>
       </c>
       <c r="AD42" s="17">
-        <v>379439</v>
+        <v>548330</v>
       </c>
       <c r="AE42" s="17">
-        <v>483945</v>
+        <v>632144</v>
       </c>
       <c r="AF42" s="17">
-        <v>548330</v>
+        <v>650932</v>
       </c>
       <c r="AG42" s="17">
-        <v>632144</v>
+        <v>578760</v>
       </c>
       <c r="AH42" s="17">
-        <v>650932</v>
+        <v>865014</v>
       </c>
       <c r="AI42" s="17">
-        <v>578760</v>
+        <v>696631</v>
       </c>
       <c r="AJ42" s="17">
-        <v>865014</v>
+        <v>615344</v>
       </c>
       <c r="AK42" s="17">
-        <v>696631</v>
+        <v>737292</v>
       </c>
       <c r="AL42" s="17">
-        <v>615344</v>
+        <v>832635</v>
       </c>
       <c r="AM42" s="17">
-        <v>737292</v>
+        <v>888052</v>
       </c>
       <c r="AN42" s="17">
-        <v>832635</v>
+        <v>839455</v>
       </c>
       <c r="AO42" s="17">
-        <v>888052</v>
+        <v>1002354</v>
       </c>
       <c r="AP42" s="17">
-        <v>839455</v>
+        <v>1104064</v>
       </c>
       <c r="AQ42" s="17">
-        <v>1002354</v>
+        <v>898319</v>
       </c>
       <c r="AR42" s="17">
-        <v>1104064</v>
+        <v>1122855</v>
       </c>
       <c r="AS42" s="17">
-        <v>898319</v>
+        <v>935654</v>
       </c>
       <c r="AT42" s="17">
-        <v>1122855</v>
+        <v>924079</v>
       </c>
       <c r="AU42" s="17">
-        <v>935654</v>
+        <v>2392268</v>
       </c>
       <c r="AV42" s="17">
-        <v>924079</v>
+        <v>2354533</v>
       </c>
       <c r="AW42" s="17">
-        <v>2392268</v>
+        <v>1792220</v>
       </c>
       <c r="AX42" s="17">
-        <v>2354533</v>
+        <v>1897316</v>
       </c>
       <c r="AY42" s="17">
-        <v>1792220</v>
+        <v>926763</v>
       </c>
       <c r="AZ42" s="17">
-        <v>1897316</v>
+        <v>1119661</v>
       </c>
       <c r="BA42" s="17">
-        <v>1004229</v>
+        <v>1185735</v>
       </c>
       <c r="BB42" s="17">
-        <v>1042195</v>
+        <v>1430191</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5263,140 +5263,140 @@
       <c r="I49" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>57</v>
+      <c r="J49" s="11">
+        <v>95891</v>
+      </c>
+      <c r="K49" s="11">
+        <v>92563</v>
       </c>
       <c r="L49" s="11">
-        <v>95891</v>
+        <v>99667</v>
       </c>
       <c r="M49" s="11">
-        <v>92563</v>
+        <v>95104</v>
       </c>
       <c r="N49" s="11">
-        <v>99667</v>
+        <v>95373</v>
       </c>
       <c r="O49" s="11">
-        <v>95104</v>
+        <v>96257</v>
       </c>
       <c r="P49" s="11">
-        <v>95373</v>
+        <v>89779</v>
       </c>
       <c r="Q49" s="11">
-        <v>96257</v>
+        <v>96826</v>
       </c>
       <c r="R49" s="11">
-        <v>89779</v>
+        <v>85938</v>
       </c>
       <c r="S49" s="11">
-        <v>96826</v>
+        <v>86337</v>
       </c>
       <c r="T49" s="11">
-        <v>85938</v>
+        <v>84501</v>
       </c>
       <c r="U49" s="11">
-        <v>86337</v>
+        <v>85530</v>
       </c>
       <c r="V49" s="11">
-        <v>84501</v>
+        <v>96523545</v>
       </c>
       <c r="W49" s="11">
-        <v>85530</v>
+        <v>87651442</v>
       </c>
       <c r="X49" s="11">
-        <v>96523545</v>
+        <v>72795901</v>
       </c>
       <c r="Y49" s="11">
-        <v>87651442</v>
+        <v>76904797</v>
       </c>
       <c r="Z49" s="11">
-        <v>72795901</v>
+        <v>87661925</v>
       </c>
       <c r="AA49" s="11">
-        <v>76904797</v>
+        <v>95693129</v>
       </c>
       <c r="AB49" s="11">
-        <v>87661925</v>
+        <v>117038556</v>
       </c>
       <c r="AC49" s="11">
-        <v>95693129</v>
+        <v>129293348</v>
       </c>
       <c r="AD49" s="11">
-        <v>117038556</v>
+        <v>152398555</v>
       </c>
       <c r="AE49" s="11">
-        <v>129293348</v>
+        <v>166704641</v>
       </c>
       <c r="AF49" s="11">
-        <v>152398555</v>
+        <v>179815470</v>
       </c>
       <c r="AG49" s="11">
-        <v>166704641</v>
+        <v>185025575</v>
       </c>
       <c r="AH49" s="11">
-        <v>179815470</v>
+        <v>226918678</v>
       </c>
       <c r="AI49" s="11">
-        <v>185025575</v>
+        <v>225301100</v>
       </c>
       <c r="AJ49" s="11">
-        <v>226918678</v>
+        <v>228752416</v>
       </c>
       <c r="AK49" s="11">
-        <v>225301100</v>
+        <v>229829177</v>
       </c>
       <c r="AL49" s="11">
-        <v>228752416</v>
+        <v>251703446</v>
       </c>
       <c r="AM49" s="11">
-        <v>229829177</v>
+        <v>231806839</v>
       </c>
       <c r="AN49" s="11">
-        <v>251703446</v>
+        <v>262329688</v>
       </c>
       <c r="AO49" s="11">
-        <v>231806839</v>
+        <v>255051908</v>
       </c>
       <c r="AP49" s="11">
-        <v>262329688</v>
+        <v>261069756</v>
       </c>
       <c r="AQ49" s="11">
-        <v>255051908</v>
+        <v>248910779</v>
       </c>
       <c r="AR49" s="11">
-        <v>261069756</v>
+        <v>242569669</v>
       </c>
       <c r="AS49" s="11">
-        <v>248910779</v>
+        <v>260192992</v>
       </c>
       <c r="AT49" s="11">
-        <v>242569669</v>
+        <v>296084268</v>
       </c>
       <c r="AU49" s="11">
-        <v>260192992</v>
+        <v>341459892</v>
       </c>
       <c r="AV49" s="11">
-        <v>296084268</v>
+        <v>376243688</v>
       </c>
       <c r="AW49" s="11">
-        <v>341459892</v>
+        <v>379707627</v>
       </c>
       <c r="AX49" s="11">
-        <v>376243688</v>
+        <v>398512077</v>
       </c>
       <c r="AY49" s="11">
-        <v>379707627</v>
+        <v>382959917</v>
       </c>
       <c r="AZ49" s="11">
-        <v>398512077</v>
+        <v>330088738</v>
       </c>
       <c r="BA49" s="11">
-        <v>377955965</v>
+        <v>328004149</v>
       </c>
       <c r="BB49" s="11">
-        <v>330331220</v>
+        <v>313363497</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/dode/shesadaf/product/monthly.xlsx
+++ b/database/industries/dode/shesadaf/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shesadaf\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shesadaf\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F12F52-72D6-4CB8-B2C0-41A39B5E2D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DE1659-979A-44DC-B54F-2A515ED599C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="73">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شصدف-صنعتی دوده فام</t>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
-  </si>
-  <si>
     <t>ماه 10 منتهی به 1397/10</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>دوده صنعتی</t>
@@ -715,12 +715,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -775,7 +775,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -832,7 +832,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -889,7 +889,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -944,7 +944,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1058,7 +1058,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1113,7 +1113,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1325,7 +1325,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1382,7 +1382,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1399,149 +1399,149 @@
       <c r="G11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>57</v>
+      <c r="H11" s="11">
+        <v>2890745</v>
+      </c>
+      <c r="I11" s="11">
+        <v>3518135</v>
       </c>
       <c r="J11" s="11">
-        <v>2890745</v>
+        <v>3302100</v>
       </c>
       <c r="K11" s="11">
-        <v>3518135</v>
+        <v>3008795</v>
       </c>
       <c r="L11" s="11">
-        <v>3302100</v>
+        <v>2891945</v>
       </c>
       <c r="M11" s="11">
-        <v>3008795</v>
+        <v>2784002</v>
       </c>
       <c r="N11" s="11">
-        <v>2891945</v>
+        <v>2641275</v>
       </c>
       <c r="O11" s="11">
-        <v>2784002</v>
+        <v>1788880</v>
       </c>
       <c r="P11" s="11">
-        <v>2641275</v>
+        <v>3358650</v>
       </c>
       <c r="Q11" s="11">
-        <v>1788880</v>
+        <v>3530506</v>
       </c>
       <c r="R11" s="11">
-        <v>3358650</v>
+        <v>3633193</v>
       </c>
       <c r="S11" s="11">
-        <v>3530506</v>
+        <v>3387265</v>
       </c>
       <c r="T11" s="11">
-        <v>3633193</v>
+        <v>3371</v>
       </c>
       <c r="U11" s="11">
-        <v>3387265</v>
+        <v>2954</v>
       </c>
       <c r="V11" s="11">
-        <v>3371</v>
+        <v>3643</v>
       </c>
       <c r="W11" s="11">
-        <v>2954</v>
+        <v>3402</v>
       </c>
       <c r="X11" s="11">
-        <v>3643</v>
+        <v>3539</v>
       </c>
       <c r="Y11" s="11">
-        <v>3402</v>
+        <v>3397</v>
       </c>
       <c r="Z11" s="11">
-        <v>3539</v>
+        <v>3428</v>
       </c>
       <c r="AA11" s="11">
-        <v>3397</v>
+        <v>3722</v>
       </c>
       <c r="AB11" s="11">
-        <v>3428</v>
+        <v>3617</v>
       </c>
       <c r="AC11" s="11">
-        <v>3722</v>
+        <v>3586</v>
       </c>
       <c r="AD11" s="11">
-        <v>3617</v>
+        <v>3763</v>
       </c>
       <c r="AE11" s="11">
-        <v>3586</v>
+        <v>2991</v>
       </c>
       <c r="AF11" s="11">
-        <v>3763</v>
+        <v>3776</v>
       </c>
       <c r="AG11" s="11">
-        <v>2991</v>
+        <v>3304</v>
       </c>
       <c r="AH11" s="11">
-        <v>3776</v>
+        <v>3346</v>
       </c>
       <c r="AI11" s="11">
-        <v>3304</v>
+        <v>2906</v>
       </c>
       <c r="AJ11" s="11">
-        <v>3346</v>
+        <v>3936</v>
       </c>
       <c r="AK11" s="11">
-        <v>2906</v>
+        <v>4558</v>
       </c>
       <c r="AL11" s="11">
-        <v>3936</v>
+        <v>4593</v>
       </c>
       <c r="AM11" s="11">
-        <v>4558</v>
+        <v>4906</v>
       </c>
       <c r="AN11" s="11">
-        <v>4593</v>
+        <v>4576</v>
       </c>
       <c r="AO11" s="11">
-        <v>4906</v>
+        <v>4101</v>
       </c>
       <c r="AP11" s="11">
-        <v>4576</v>
+        <v>4530</v>
       </c>
       <c r="AQ11" s="11">
-        <v>4101</v>
+        <v>4667</v>
       </c>
       <c r="AR11" s="11">
-        <v>4530</v>
+        <v>4865</v>
       </c>
       <c r="AS11" s="11">
-        <v>4667</v>
+        <v>4946</v>
       </c>
       <c r="AT11" s="11">
-        <v>4865</v>
+        <v>4260</v>
       </c>
       <c r="AU11" s="11">
-        <v>4946</v>
+        <v>4831</v>
       </c>
       <c r="AV11" s="11">
-        <v>4260</v>
+        <v>5288</v>
       </c>
       <c r="AW11" s="11">
-        <v>4831</v>
+        <v>5018</v>
       </c>
       <c r="AX11" s="11">
-        <v>5288</v>
+        <v>4910</v>
       </c>
       <c r="AY11" s="11">
-        <v>5018</v>
+        <v>4861</v>
       </c>
       <c r="AZ11" s="11">
-        <v>4910</v>
+        <v>4625</v>
       </c>
       <c r="BA11" s="11">
-        <v>4861</v>
+        <v>4208</v>
       </c>
       <c r="BB11" s="11">
-        <v>4625</v>
+        <v>3860</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1598,7 +1598,7 @@
       <c r="BA12" s="13"/>
       <c r="BB12" s="13"/>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>59</v>
       </c>
@@ -1658,11 +1658,11 @@
       <c r="V13" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W13" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X13" s="15" t="s">
-        <v>57</v>
+      <c r="W13" s="15">
+        <v>0</v>
+      </c>
+      <c r="X13" s="15">
+        <v>0</v>
       </c>
       <c r="Y13" s="15">
         <v>0</v>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>60</v>
       </c>
@@ -1771,148 +1771,148 @@
         <v>0</v>
       </c>
       <c r="H14" s="17">
-        <v>0</v>
+        <v>2890745</v>
       </c>
       <c r="I14" s="17">
-        <v>0</v>
+        <v>3518135</v>
       </c>
       <c r="J14" s="17">
-        <v>2890745</v>
+        <v>3302100</v>
       </c>
       <c r="K14" s="17">
-        <v>3518135</v>
+        <v>3008795</v>
       </c>
       <c r="L14" s="17">
-        <v>3302100</v>
+        <v>2891945</v>
       </c>
       <c r="M14" s="17">
-        <v>3008795</v>
+        <v>2784002</v>
       </c>
       <c r="N14" s="17">
-        <v>2891945</v>
+        <v>2641275</v>
       </c>
       <c r="O14" s="17">
-        <v>2784002</v>
+        <v>1788880</v>
       </c>
       <c r="P14" s="17">
-        <v>2641275</v>
+        <v>3358650</v>
       </c>
       <c r="Q14" s="17">
-        <v>1788880</v>
+        <v>3530506</v>
       </c>
       <c r="R14" s="17">
-        <v>3358650</v>
+        <v>3633193</v>
       </c>
       <c r="S14" s="17">
-        <v>3530506</v>
+        <v>3387265</v>
       </c>
       <c r="T14" s="17">
-        <v>3633193</v>
+        <v>3371</v>
       </c>
       <c r="U14" s="17">
-        <v>3387265</v>
+        <v>2954</v>
       </c>
       <c r="V14" s="17">
-        <v>3371</v>
+        <v>3643</v>
       </c>
       <c r="W14" s="17">
-        <v>2954</v>
+        <v>3402</v>
       </c>
       <c r="X14" s="17">
-        <v>3643</v>
+        <v>3539</v>
       </c>
       <c r="Y14" s="17">
-        <v>3402</v>
+        <v>3397</v>
       </c>
       <c r="Z14" s="17">
-        <v>3539</v>
+        <v>3428</v>
       </c>
       <c r="AA14" s="17">
-        <v>3397</v>
+        <v>3722</v>
       </c>
       <c r="AB14" s="17">
-        <v>3428</v>
+        <v>3617</v>
       </c>
       <c r="AC14" s="17">
-        <v>3722</v>
+        <v>3586</v>
       </c>
       <c r="AD14" s="17">
-        <v>3617</v>
+        <v>3763</v>
       </c>
       <c r="AE14" s="17">
-        <v>3586</v>
+        <v>2991</v>
       </c>
       <c r="AF14" s="17">
-        <v>3763</v>
+        <v>3776</v>
       </c>
       <c r="AG14" s="17">
-        <v>2991</v>
+        <v>3304</v>
       </c>
       <c r="AH14" s="17">
-        <v>3776</v>
+        <v>3346</v>
       </c>
       <c r="AI14" s="17">
-        <v>3304</v>
+        <v>2906</v>
       </c>
       <c r="AJ14" s="17">
-        <v>3346</v>
+        <v>3936</v>
       </c>
       <c r="AK14" s="17">
-        <v>2906</v>
+        <v>4558</v>
       </c>
       <c r="AL14" s="17">
-        <v>3936</v>
+        <v>4593</v>
       </c>
       <c r="AM14" s="17">
-        <v>4558</v>
+        <v>4906</v>
       </c>
       <c r="AN14" s="17">
-        <v>4593</v>
+        <v>4576</v>
       </c>
       <c r="AO14" s="17">
-        <v>4906</v>
+        <v>4101</v>
       </c>
       <c r="AP14" s="17">
-        <v>4576</v>
+        <v>4530</v>
       </c>
       <c r="AQ14" s="17">
-        <v>4101</v>
+        <v>4667</v>
       </c>
       <c r="AR14" s="17">
-        <v>4530</v>
+        <v>4865</v>
       </c>
       <c r="AS14" s="17">
-        <v>4667</v>
+        <v>4946</v>
       </c>
       <c r="AT14" s="17">
-        <v>4865</v>
+        <v>4260</v>
       </c>
       <c r="AU14" s="17">
-        <v>4946</v>
+        <v>4831</v>
       </c>
       <c r="AV14" s="17">
-        <v>4260</v>
+        <v>5288</v>
       </c>
       <c r="AW14" s="17">
-        <v>4831</v>
+        <v>5018</v>
       </c>
       <c r="AX14" s="17">
-        <v>5288</v>
+        <v>4910</v>
       </c>
       <c r="AY14" s="17">
-        <v>5018</v>
+        <v>4861</v>
       </c>
       <c r="AZ14" s="17">
-        <v>4910</v>
+        <v>4625</v>
       </c>
       <c r="BA14" s="17">
-        <v>4861</v>
+        <v>4208</v>
       </c>
       <c r="BB14" s="17">
-        <v>4625</v>
+        <v>3860</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1967,7 +1967,7 @@
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2022,7 +2022,7 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2077,7 +2077,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>61</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2289,7 +2289,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>61</v>
       </c>
@@ -2346,7 +2346,7 @@
       <c r="BA20" s="9"/>
       <c r="BB20" s="9"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>55</v>
       </c>
@@ -2363,149 +2363,149 @@
       <c r="G21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>57</v>
+      <c r="H21" s="11">
+        <v>2614970</v>
+      </c>
+      <c r="I21" s="11">
+        <v>3497475</v>
       </c>
       <c r="J21" s="11">
-        <v>2614970</v>
+        <v>2803416</v>
       </c>
       <c r="K21" s="11">
-        <v>3497475</v>
+        <v>3192791</v>
       </c>
       <c r="L21" s="11">
-        <v>2803416</v>
+        <v>3220943</v>
       </c>
       <c r="M21" s="11">
-        <v>3192791</v>
+        <v>2153174</v>
       </c>
       <c r="N21" s="11">
-        <v>3220943</v>
+        <v>2048296</v>
       </c>
       <c r="O21" s="11">
-        <v>2153174</v>
+        <v>2447403</v>
       </c>
       <c r="P21" s="11">
-        <v>2048296</v>
+        <v>3037548</v>
       </c>
       <c r="Q21" s="11">
-        <v>2447403</v>
+        <v>3624511</v>
       </c>
       <c r="R21" s="11">
-        <v>3037548</v>
+        <v>3833296</v>
       </c>
       <c r="S21" s="11">
-        <v>3624511</v>
+        <v>3319220</v>
       </c>
       <c r="T21" s="11">
-        <v>3833296</v>
+        <v>2697</v>
       </c>
       <c r="U21" s="11">
-        <v>3319220</v>
+        <v>2912</v>
       </c>
       <c r="V21" s="11">
-        <v>2697</v>
+        <v>3562</v>
       </c>
       <c r="W21" s="11">
-        <v>2912</v>
+        <v>4065</v>
       </c>
       <c r="X21" s="11">
-        <v>3562</v>
+        <v>4218</v>
       </c>
       <c r="Y21" s="11">
-        <v>4065</v>
+        <v>4308</v>
       </c>
       <c r="Z21" s="11">
-        <v>4218</v>
+        <v>3242</v>
       </c>
       <c r="AA21" s="11">
-        <v>4308</v>
+        <v>3743</v>
       </c>
       <c r="AB21" s="11">
-        <v>3242</v>
+        <v>3598</v>
       </c>
       <c r="AC21" s="11">
-        <v>3743</v>
+        <v>3792</v>
       </c>
       <c r="AD21" s="11">
-        <v>3598</v>
+        <v>3620</v>
       </c>
       <c r="AE21" s="11">
-        <v>3792</v>
+        <v>3128</v>
       </c>
       <c r="AF21" s="11">
-        <v>3620</v>
+        <v>3812</v>
       </c>
       <c r="AG21" s="11">
-        <v>3128</v>
+        <v>3092</v>
       </c>
       <c r="AH21" s="11">
-        <v>3812</v>
+        <v>2690</v>
       </c>
       <c r="AI21" s="11">
-        <v>3092</v>
+        <v>3208</v>
       </c>
       <c r="AJ21" s="11">
-        <v>2690</v>
+        <v>3308</v>
       </c>
       <c r="AK21" s="11">
-        <v>3208</v>
+        <v>3831</v>
       </c>
       <c r="AL21" s="11">
-        <v>3308</v>
+        <v>3200</v>
       </c>
       <c r="AM21" s="11">
-        <v>3831</v>
+        <v>3930</v>
       </c>
       <c r="AN21" s="11">
-        <v>3200</v>
+        <v>4229</v>
       </c>
       <c r="AO21" s="11">
-        <v>3930</v>
+        <v>3609</v>
       </c>
       <c r="AP21" s="11">
-        <v>4229</v>
+        <v>4629</v>
       </c>
       <c r="AQ21" s="11">
-        <v>3609</v>
+        <v>3596</v>
       </c>
       <c r="AR21" s="11">
-        <v>4629</v>
+        <v>3121</v>
       </c>
       <c r="AS21" s="11">
-        <v>3596</v>
+        <v>7006</v>
       </c>
       <c r="AT21" s="11">
-        <v>3121</v>
+        <v>6258</v>
       </c>
       <c r="AU21" s="11">
-        <v>7006</v>
+        <v>4720</v>
       </c>
       <c r="AV21" s="11">
-        <v>6258</v>
+        <v>4761</v>
       </c>
       <c r="AW21" s="11">
-        <v>4720</v>
+        <v>2420</v>
       </c>
       <c r="AX21" s="11">
-        <v>4761</v>
+        <v>3155</v>
       </c>
       <c r="AY21" s="11">
-        <v>2420</v>
+        <v>3615</v>
       </c>
       <c r="AZ21" s="11">
-        <v>3392</v>
+        <v>4564</v>
       </c>
       <c r="BA21" s="11">
-        <v>3615</v>
+        <v>7779</v>
       </c>
       <c r="BB21" s="11">
-        <v>4564</v>
+        <v>6776</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>58</v>
       </c>
@@ -2562,7 +2562,7 @@
       <c r="BA22" s="13"/>
       <c r="BB22" s="13"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>59</v>
       </c>
@@ -2622,11 +2622,11 @@
       <c r="V23" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W23" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X23" s="15" t="s">
-        <v>57</v>
+      <c r="W23" s="15">
+        <v>0</v>
+      </c>
+      <c r="X23" s="15">
+        <v>0</v>
       </c>
       <c r="Y23" s="15">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>62</v>
       </c>
@@ -2776,7 +2776,7 @@
       <c r="BA24" s="9"/>
       <c r="BB24" s="9"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>55</v>
       </c>
@@ -2838,11 +2838,11 @@
       <c r="V25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X25" s="11" t="s">
-        <v>57</v>
+      <c r="W25" s="11">
+        <v>0</v>
+      </c>
+      <c r="X25" s="11">
+        <v>0</v>
       </c>
       <c r="Y25" s="11">
         <v>0</v>
@@ -2865,11 +2865,11 @@
       <c r="AE25" s="11">
         <v>0</v>
       </c>
-      <c r="AF25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="11">
-        <v>0</v>
+      <c r="AF25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG25" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH25" s="11" t="s">
         <v>57</v>
@@ -2935,7 +2935,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>63</v>
       </c>
@@ -2995,11 +2995,11 @@
       <c r="V26" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W26" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X26" s="17" t="s">
-        <v>57</v>
+      <c r="W26" s="17">
+        <v>0</v>
+      </c>
+      <c r="X26" s="17">
+        <v>0</v>
       </c>
       <c r="Y26" s="17">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>60</v>
       </c>
@@ -3108,148 +3108,148 @@
         <v>0</v>
       </c>
       <c r="H27" s="15">
-        <v>0</v>
+        <v>2614970</v>
       </c>
       <c r="I27" s="15">
-        <v>0</v>
+        <v>3497475</v>
       </c>
       <c r="J27" s="15">
-        <v>2614970</v>
+        <v>2803416</v>
       </c>
       <c r="K27" s="15">
-        <v>3497475</v>
+        <v>3192791</v>
       </c>
       <c r="L27" s="15">
-        <v>2803416</v>
+        <v>3220943</v>
       </c>
       <c r="M27" s="15">
-        <v>3192791</v>
+        <v>2153174</v>
       </c>
       <c r="N27" s="15">
-        <v>3220943</v>
+        <v>2048296</v>
       </c>
       <c r="O27" s="15">
-        <v>2153174</v>
+        <v>2447403</v>
       </c>
       <c r="P27" s="15">
-        <v>2048296</v>
+        <v>3037548</v>
       </c>
       <c r="Q27" s="15">
-        <v>2447403</v>
+        <v>3624511</v>
       </c>
       <c r="R27" s="15">
-        <v>3037548</v>
+        <v>3833296</v>
       </c>
       <c r="S27" s="15">
-        <v>3624511</v>
+        <v>3319220</v>
       </c>
       <c r="T27" s="15">
-        <v>3833296</v>
+        <v>2697</v>
       </c>
       <c r="U27" s="15">
-        <v>3319220</v>
+        <v>2912</v>
       </c>
       <c r="V27" s="15">
-        <v>2697</v>
+        <v>3562</v>
       </c>
       <c r="W27" s="15">
-        <v>2912</v>
+        <v>4065</v>
       </c>
       <c r="X27" s="15">
-        <v>3562</v>
+        <v>4218</v>
       </c>
       <c r="Y27" s="15">
-        <v>4065</v>
+        <v>4308</v>
       </c>
       <c r="Z27" s="15">
-        <v>4218</v>
+        <v>3242</v>
       </c>
       <c r="AA27" s="15">
-        <v>4308</v>
+        <v>3743</v>
       </c>
       <c r="AB27" s="15">
-        <v>3242</v>
+        <v>3598</v>
       </c>
       <c r="AC27" s="15">
-        <v>3743</v>
+        <v>3792</v>
       </c>
       <c r="AD27" s="15">
-        <v>3598</v>
+        <v>3620</v>
       </c>
       <c r="AE27" s="15">
-        <v>3792</v>
+        <v>3128</v>
       </c>
       <c r="AF27" s="15">
-        <v>3620</v>
+        <v>3812</v>
       </c>
       <c r="AG27" s="15">
-        <v>3128</v>
+        <v>3092</v>
       </c>
       <c r="AH27" s="15">
-        <v>3812</v>
+        <v>2690</v>
       </c>
       <c r="AI27" s="15">
-        <v>3092</v>
+        <v>3208</v>
       </c>
       <c r="AJ27" s="15">
-        <v>2690</v>
+        <v>3308</v>
       </c>
       <c r="AK27" s="15">
-        <v>3208</v>
+        <v>3831</v>
       </c>
       <c r="AL27" s="15">
-        <v>3308</v>
+        <v>3200</v>
       </c>
       <c r="AM27" s="15">
-        <v>3831</v>
+        <v>3930</v>
       </c>
       <c r="AN27" s="15">
-        <v>3200</v>
+        <v>4229</v>
       </c>
       <c r="AO27" s="15">
-        <v>3930</v>
+        <v>3609</v>
       </c>
       <c r="AP27" s="15">
-        <v>4229</v>
+        <v>4629</v>
       </c>
       <c r="AQ27" s="15">
-        <v>3609</v>
+        <v>3596</v>
       </c>
       <c r="AR27" s="15">
-        <v>4629</v>
+        <v>3121</v>
       </c>
       <c r="AS27" s="15">
-        <v>3596</v>
+        <v>7006</v>
       </c>
       <c r="AT27" s="15">
-        <v>3121</v>
+        <v>6258</v>
       </c>
       <c r="AU27" s="15">
-        <v>7006</v>
+        <v>4720</v>
       </c>
       <c r="AV27" s="15">
-        <v>6258</v>
+        <v>4761</v>
       </c>
       <c r="AW27" s="15">
-        <v>4720</v>
+        <v>2420</v>
       </c>
       <c r="AX27" s="15">
-        <v>4761</v>
+        <v>3155</v>
       </c>
       <c r="AY27" s="15">
-        <v>2420</v>
+        <v>3615</v>
       </c>
       <c r="AZ27" s="15">
-        <v>3392</v>
+        <v>4564</v>
       </c>
       <c r="BA27" s="15">
-        <v>3615</v>
+        <v>7779</v>
       </c>
       <c r="BB27" s="15">
-        <v>4564</v>
+        <v>6776</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3304,7 +3304,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3359,7 +3359,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3414,7 +3414,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>64</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -3626,7 +3626,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>64</v>
       </c>
@@ -3683,7 +3683,7 @@
       <c r="BA33" s="9"/>
       <c r="BB33" s="9"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>55</v>
       </c>
@@ -3700,149 +3700,149 @@
       <c r="G34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>57</v>
+      <c r="H34" s="11">
+        <v>250752</v>
+      </c>
+      <c r="I34" s="11">
+        <v>323737</v>
       </c>
       <c r="J34" s="11">
-        <v>250752</v>
+        <v>279408</v>
       </c>
       <c r="K34" s="11">
-        <v>323737</v>
+        <v>303647</v>
       </c>
       <c r="L34" s="11">
-        <v>279408</v>
+        <v>307191</v>
       </c>
       <c r="M34" s="11">
-        <v>303647</v>
+        <v>207258</v>
       </c>
       <c r="N34" s="11">
-        <v>307191</v>
+        <v>183894</v>
       </c>
       <c r="O34" s="11">
-        <v>207258</v>
+        <v>236972</v>
       </c>
       <c r="P34" s="11">
-        <v>183894</v>
+        <v>261042</v>
       </c>
       <c r="Q34" s="11">
-        <v>236972</v>
+        <v>312929</v>
       </c>
       <c r="R34" s="11">
-        <v>261042</v>
+        <v>323917</v>
       </c>
       <c r="S34" s="11">
-        <v>312929</v>
+        <v>283893</v>
       </c>
       <c r="T34" s="11">
-        <v>323917</v>
+        <v>260324</v>
       </c>
       <c r="U34" s="11">
-        <v>283893</v>
+        <v>255241</v>
       </c>
       <c r="V34" s="11">
-        <v>260324</v>
+        <v>259299</v>
       </c>
       <c r="W34" s="11">
-        <v>255241</v>
+        <v>312618</v>
       </c>
       <c r="X34" s="11">
-        <v>259299</v>
+        <v>369758</v>
       </c>
       <c r="Y34" s="11">
-        <v>312618</v>
+        <v>412246</v>
       </c>
       <c r="Z34" s="11">
-        <v>369758</v>
+        <v>379439</v>
       </c>
       <c r="AA34" s="11">
-        <v>412246</v>
+        <v>483945</v>
       </c>
       <c r="AB34" s="11">
-        <v>379439</v>
+        <v>548330</v>
       </c>
       <c r="AC34" s="11">
-        <v>483945</v>
+        <v>632144</v>
       </c>
       <c r="AD34" s="11">
-        <v>548330</v>
+        <v>650932</v>
       </c>
       <c r="AE34" s="11">
-        <v>632144</v>
+        <v>578760</v>
       </c>
       <c r="AF34" s="11">
-        <v>650932</v>
+        <v>865014</v>
       </c>
       <c r="AG34" s="11">
-        <v>578760</v>
+        <v>696631</v>
       </c>
       <c r="AH34" s="11">
-        <v>865014</v>
+        <v>615344</v>
       </c>
       <c r="AI34" s="11">
-        <v>696631</v>
+        <v>737292</v>
       </c>
       <c r="AJ34" s="11">
-        <v>615344</v>
+        <v>832635</v>
       </c>
       <c r="AK34" s="11">
-        <v>737292</v>
+        <v>888052</v>
       </c>
       <c r="AL34" s="11">
-        <v>832635</v>
+        <v>839455</v>
       </c>
       <c r="AM34" s="11">
-        <v>888052</v>
+        <v>1002354</v>
       </c>
       <c r="AN34" s="11">
-        <v>839455</v>
+        <v>1104064</v>
       </c>
       <c r="AO34" s="11">
-        <v>1002354</v>
+        <v>898319</v>
       </c>
       <c r="AP34" s="11">
-        <v>1104064</v>
+        <v>1122855</v>
       </c>
       <c r="AQ34" s="11">
-        <v>898319</v>
+        <v>935654</v>
       </c>
       <c r="AR34" s="11">
-        <v>1122855</v>
+        <v>924079</v>
       </c>
       <c r="AS34" s="11">
-        <v>935654</v>
+        <v>2392268</v>
       </c>
       <c r="AT34" s="11">
-        <v>924079</v>
+        <v>2354533</v>
       </c>
       <c r="AU34" s="11">
-        <v>2392268</v>
+        <v>1792220</v>
       </c>
       <c r="AV34" s="11">
-        <v>2354533</v>
+        <v>1897316</v>
       </c>
       <c r="AW34" s="11">
-        <v>1792220</v>
+        <v>926763</v>
       </c>
       <c r="AX34" s="11">
-        <v>1897316</v>
+        <v>1042195</v>
       </c>
       <c r="AY34" s="11">
-        <v>926763</v>
+        <v>1185735</v>
       </c>
       <c r="AZ34" s="11">
-        <v>1119661</v>
+        <v>1430191</v>
       </c>
       <c r="BA34" s="11">
-        <v>1185735</v>
+        <v>2296358</v>
       </c>
       <c r="BB34" s="11">
-        <v>1430191</v>
+        <v>2147902</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>66</v>
       </c>
@@ -3899,7 +3899,7 @@
       <c r="BA35" s="13"/>
       <c r="BB35" s="13"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
         <v>59</v>
       </c>
@@ -3961,11 +3961,11 @@
       <c r="V36" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W36" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X36" s="15" t="s">
-        <v>57</v>
+      <c r="W36" s="15">
+        <v>0</v>
+      </c>
+      <c r="X36" s="15">
+        <v>0</v>
       </c>
       <c r="Y36" s="15">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>67</v>
       </c>
@@ -4115,7 +4115,7 @@
       <c r="BA37" s="9"/>
       <c r="BB37" s="9"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>55</v>
       </c>
@@ -4177,11 +4177,11 @@
       <c r="V38" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X38" s="11" t="s">
-        <v>57</v>
+      <c r="W38" s="11">
+        <v>0</v>
+      </c>
+      <c r="X38" s="11">
+        <v>0</v>
       </c>
       <c r="Y38" s="11">
         <v>0</v>
@@ -4204,20 +4204,20 @@
       <c r="AE38" s="11">
         <v>0</v>
       </c>
-      <c r="AF38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="11">
-        <v>0</v>
+      <c r="AF38" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG38" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH38" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI38" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ38" s="11" t="s">
-        <v>57</v>
+      <c r="AI38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="11">
+        <v>0</v>
       </c>
       <c r="AK38" s="11">
         <v>0</v>
@@ -4240,11 +4240,11 @@
       <c r="AQ38" s="11">
         <v>0</v>
       </c>
-      <c r="AR38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS38" s="11">
-        <v>0</v>
+      <c r="AR38" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS38" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT38" s="11" t="s">
         <v>57</v>
@@ -4274,7 +4274,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>63</v>
       </c>
@@ -4336,11 +4336,11 @@
       <c r="V39" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X39" s="17" t="s">
-        <v>57</v>
+      <c r="W39" s="17">
+        <v>0</v>
+      </c>
+      <c r="X39" s="17">
+        <v>0</v>
       </c>
       <c r="Y39" s="17">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
         <v>68</v>
       </c>
@@ -4490,7 +4490,7 @@
       <c r="BA40" s="9"/>
       <c r="BB40" s="9"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>69</v>
       </c>
@@ -4552,11 +4552,11 @@
       <c r="V41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W41" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X41" s="11" t="s">
-        <v>57</v>
+      <c r="W41" s="11">
+        <v>0</v>
+      </c>
+      <c r="X41" s="11">
+        <v>0</v>
       </c>
       <c r="Y41" s="11">
         <v>0</v>
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
         <v>60</v>
       </c>
@@ -4665,148 +4665,148 @@
         <v>0</v>
       </c>
       <c r="H42" s="17">
-        <v>0</v>
+        <v>250752</v>
       </c>
       <c r="I42" s="17">
-        <v>0</v>
+        <v>323737</v>
       </c>
       <c r="J42" s="17">
-        <v>250752</v>
+        <v>279408</v>
       </c>
       <c r="K42" s="17">
-        <v>323737</v>
+        <v>303647</v>
       </c>
       <c r="L42" s="17">
-        <v>279408</v>
+        <v>307191</v>
       </c>
       <c r="M42" s="17">
-        <v>303647</v>
+        <v>207258</v>
       </c>
       <c r="N42" s="17">
-        <v>307191</v>
+        <v>183894</v>
       </c>
       <c r="O42" s="17">
-        <v>207258</v>
+        <v>236972</v>
       </c>
       <c r="P42" s="17">
-        <v>183894</v>
+        <v>261042</v>
       </c>
       <c r="Q42" s="17">
-        <v>236972</v>
+        <v>312929</v>
       </c>
       <c r="R42" s="17">
-        <v>261042</v>
+        <v>323917</v>
       </c>
       <c r="S42" s="17">
-        <v>312929</v>
+        <v>283893</v>
       </c>
       <c r="T42" s="17">
-        <v>323917</v>
+        <v>260324</v>
       </c>
       <c r="U42" s="17">
-        <v>283893</v>
+        <v>255241</v>
       </c>
       <c r="V42" s="17">
-        <v>260324</v>
+        <v>259299</v>
       </c>
       <c r="W42" s="17">
-        <v>255241</v>
+        <v>312618</v>
       </c>
       <c r="X42" s="17">
-        <v>259299</v>
+        <v>369758</v>
       </c>
       <c r="Y42" s="17">
-        <v>312618</v>
+        <v>412246</v>
       </c>
       <c r="Z42" s="17">
-        <v>369758</v>
+        <v>379439</v>
       </c>
       <c r="AA42" s="17">
-        <v>412246</v>
+        <v>483945</v>
       </c>
       <c r="AB42" s="17">
-        <v>379439</v>
+        <v>548330</v>
       </c>
       <c r="AC42" s="17">
-        <v>483945</v>
+        <v>632144</v>
       </c>
       <c r="AD42" s="17">
-        <v>548330</v>
+        <v>650932</v>
       </c>
       <c r="AE42" s="17">
-        <v>632144</v>
+        <v>578760</v>
       </c>
       <c r="AF42" s="17">
-        <v>650932</v>
+        <v>865014</v>
       </c>
       <c r="AG42" s="17">
-        <v>578760</v>
+        <v>696631</v>
       </c>
       <c r="AH42" s="17">
-        <v>865014</v>
+        <v>615344</v>
       </c>
       <c r="AI42" s="17">
-        <v>696631</v>
+        <v>737292</v>
       </c>
       <c r="AJ42" s="17">
-        <v>615344</v>
+        <v>832635</v>
       </c>
       <c r="AK42" s="17">
-        <v>737292</v>
+        <v>888052</v>
       </c>
       <c r="AL42" s="17">
-        <v>832635</v>
+        <v>839455</v>
       </c>
       <c r="AM42" s="17">
-        <v>888052</v>
+        <v>1002354</v>
       </c>
       <c r="AN42" s="17">
-        <v>839455</v>
+        <v>1104064</v>
       </c>
       <c r="AO42" s="17">
-        <v>1002354</v>
+        <v>898319</v>
       </c>
       <c r="AP42" s="17">
-        <v>1104064</v>
+        <v>1122855</v>
       </c>
       <c r="AQ42" s="17">
-        <v>898319</v>
+        <v>935654</v>
       </c>
       <c r="AR42" s="17">
-        <v>1122855</v>
+        <v>924079</v>
       </c>
       <c r="AS42" s="17">
-        <v>935654</v>
+        <v>2392268</v>
       </c>
       <c r="AT42" s="17">
-        <v>924079</v>
+        <v>2354533</v>
       </c>
       <c r="AU42" s="17">
-        <v>2392268</v>
+        <v>1792220</v>
       </c>
       <c r="AV42" s="17">
-        <v>2354533</v>
+        <v>1897316</v>
       </c>
       <c r="AW42" s="17">
-        <v>1792220</v>
+        <v>926763</v>
       </c>
       <c r="AX42" s="17">
-        <v>1897316</v>
+        <v>1042195</v>
       </c>
       <c r="AY42" s="17">
-        <v>926763</v>
+        <v>1185735</v>
       </c>
       <c r="AZ42" s="17">
-        <v>1119661</v>
+        <v>1430191</v>
       </c>
       <c r="BA42" s="17">
-        <v>1185735</v>
+        <v>2296358</v>
       </c>
       <c r="BB42" s="17">
-        <v>1430191</v>
+        <v>2147902</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -4861,7 +4861,7 @@
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -4916,7 +4916,7 @@
       <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -4971,7 +4971,7 @@
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
     </row>
-    <row r="46" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>70</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5183,7 +5183,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>71</v>
       </c>
@@ -5240,7 +5240,7 @@
       <c r="BA48" s="9"/>
       <c r="BB48" s="9"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>55</v>
       </c>
@@ -5257,146 +5257,146 @@
       <c r="G49" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>57</v>
+      <c r="H49" s="11">
+        <v>95891</v>
+      </c>
+      <c r="I49" s="11">
+        <v>92563</v>
       </c>
       <c r="J49" s="11">
-        <v>95891</v>
+        <v>99667</v>
       </c>
       <c r="K49" s="11">
-        <v>92563</v>
+        <v>95104</v>
       </c>
       <c r="L49" s="11">
-        <v>99667</v>
+        <v>95373</v>
       </c>
       <c r="M49" s="11">
-        <v>95104</v>
+        <v>96257</v>
       </c>
       <c r="N49" s="11">
-        <v>95373</v>
+        <v>89779</v>
       </c>
       <c r="O49" s="11">
-        <v>96257</v>
+        <v>96826</v>
       </c>
       <c r="P49" s="11">
-        <v>89779</v>
+        <v>85938</v>
       </c>
       <c r="Q49" s="11">
-        <v>96826</v>
+        <v>86337</v>
       </c>
       <c r="R49" s="11">
-        <v>85938</v>
+        <v>84501</v>
       </c>
       <c r="S49" s="11">
-        <v>86337</v>
+        <v>85530</v>
       </c>
       <c r="T49" s="11">
-        <v>84501</v>
+        <v>96523545</v>
       </c>
       <c r="U49" s="11">
-        <v>85530</v>
+        <v>87651442</v>
       </c>
       <c r="V49" s="11">
-        <v>96523545</v>
+        <v>72795901</v>
       </c>
       <c r="W49" s="11">
-        <v>87651442</v>
+        <v>76904797</v>
       </c>
       <c r="X49" s="11">
-        <v>72795901</v>
+        <v>87661925</v>
       </c>
       <c r="Y49" s="11">
-        <v>76904797</v>
+        <v>95693129</v>
       </c>
       <c r="Z49" s="11">
-        <v>87661925</v>
+        <v>117038556</v>
       </c>
       <c r="AA49" s="11">
-        <v>95693129</v>
+        <v>129293348</v>
       </c>
       <c r="AB49" s="11">
-        <v>117038556</v>
+        <v>152398555</v>
       </c>
       <c r="AC49" s="11">
-        <v>129293348</v>
+        <v>166704641</v>
       </c>
       <c r="AD49" s="11">
-        <v>152398555</v>
+        <v>179815470</v>
       </c>
       <c r="AE49" s="11">
-        <v>166704641</v>
+        <v>185025575</v>
       </c>
       <c r="AF49" s="11">
-        <v>179815470</v>
+        <v>226918678</v>
       </c>
       <c r="AG49" s="11">
-        <v>185025575</v>
+        <v>225301100</v>
       </c>
       <c r="AH49" s="11">
-        <v>226918678</v>
+        <v>228752416</v>
       </c>
       <c r="AI49" s="11">
-        <v>225301100</v>
+        <v>229829177</v>
       </c>
       <c r="AJ49" s="11">
-        <v>228752416</v>
+        <v>251703446</v>
       </c>
       <c r="AK49" s="11">
-        <v>229829177</v>
+        <v>231806839</v>
       </c>
       <c r="AL49" s="11">
-        <v>251703446</v>
+        <v>262329688</v>
       </c>
       <c r="AM49" s="11">
-        <v>231806839</v>
+        <v>255051908</v>
       </c>
       <c r="AN49" s="11">
-        <v>262329688</v>
+        <v>261069756</v>
       </c>
       <c r="AO49" s="11">
-        <v>255051908</v>
+        <v>248910779</v>
       </c>
       <c r="AP49" s="11">
-        <v>261069756</v>
+        <v>242569669</v>
       </c>
       <c r="AQ49" s="11">
-        <v>248910779</v>
+        <v>260192992</v>
       </c>
       <c r="AR49" s="11">
-        <v>242569669</v>
+        <v>296084268</v>
       </c>
       <c r="AS49" s="11">
-        <v>260192992</v>
+        <v>341459892</v>
       </c>
       <c r="AT49" s="11">
-        <v>296084268</v>
+        <v>376243688</v>
       </c>
       <c r="AU49" s="11">
-        <v>341459892</v>
+        <v>379707627</v>
       </c>
       <c r="AV49" s="11">
-        <v>376243688</v>
+        <v>398512077</v>
       </c>
       <c r="AW49" s="11">
-        <v>379707627</v>
+        <v>382959917</v>
       </c>
       <c r="AX49" s="11">
-        <v>398512077</v>
+        <v>330331220</v>
       </c>
       <c r="AY49" s="11">
-        <v>382959917</v>
+        <v>328004149</v>
       </c>
       <c r="AZ49" s="11">
-        <v>330088738</v>
+        <v>313363497</v>
       </c>
       <c r="BA49" s="11">
-        <v>328004149</v>
+        <v>295199640</v>
       </c>
       <c r="BB49" s="11">
-        <v>313363497</v>
+        <v>316986718</v>
       </c>
     </row>
   </sheetData>
